--- a/docs/base/StructureDefinition-lt-organization.xlsx
+++ b/docs/base/StructureDefinition-lt-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="438">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T15:58:38+02:00</t>
+    <t>2025-10-30T19:04:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization|5.0.0</t>
+    <t>http://hl7.eu/fhir/base-r5/StructureDefinition/organization-eu-core|0.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}name-or-identifier:identifier or name SHALL be present {identifier.exists() or name.exists()}</t>
   </si>
   <si>
     <t>administrative.group</t>
@@ -781,7 +781,7 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t>Kind of organization</t>
+    <t>Organization type</t>
   </si>
   <si>
     <t>The kind(s) of organization that this is.</t>
@@ -1152,76 +1152,70 @@
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
-    <t>Organization.contact.telecom:Phone</t>
-  </si>
-  <si>
-    <t>Phone</t>
+    <t>Organization.contact.telecom:phone</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
   <si>
     <t>Telefono numeris / Phone number</t>
   </si>
   <si>
-    <t>Organization.contact.telecom:Phone.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Phone.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Phone.system</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Phone.value</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Phone.use</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Phone.rank</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Phone.period</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Email</t>
-  </si>
-  <si>
-    <t>Email</t>
+    <t>Organization.contact.telecom:phone.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:phone.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:phone.system</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:phone.value</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:phone.use</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:phone.rank</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:phone.period</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:email</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
   <si>
     <t>Elektroninio pašto adresas / Email</t>
   </si>
   <si>
-    <t>Organization.contact.telecom:Email.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Email.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Email.system</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Email.value</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Email.use</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Email.rank</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom:Email.period</t>
+    <t>Organization.contact.telecom:email.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:email.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:email.system</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:email.value</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:email.use</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:email.rank</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom:email.period</t>
   </si>
   <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {http://hl7.eu/fhir/base-r5/StructureDefinition/Address-eu|0.1.0}
 </t>
   </si>
   <si>
@@ -1270,7 +1264,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.2.0)
 </t>
   </si>
   <si>
@@ -1716,7 +1710,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.88671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3521,7 +3515,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>193</v>
       </c>
@@ -3540,7 +3534,7 @@
         <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
@@ -3638,7 +3632,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>204</v>
       </c>
@@ -3657,7 +3651,7 @@
         <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
@@ -5055,7 +5049,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>81</v>
@@ -5640,7 +5634,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
@@ -5972,7 +5966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>324</v>
       </c>
@@ -5991,7 +5985,7 @@
         <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6087,7 +6081,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>334</v>
       </c>
@@ -6106,7 +6100,7 @@
         <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>79</v>
@@ -6206,7 +6200,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>342</v>
       </c>
@@ -6225,7 +6219,7 @@
         <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>92</v>
@@ -6906,7 +6900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>369</v>
       </c>
@@ -6925,7 +6919,7 @@
         <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>79</v>
@@ -6949,7 +6943,7 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>79</v>
@@ -7021,9 +7015,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>334</v>
@@ -7040,7 +7034,7 @@
         <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>79</v>
@@ -7140,9 +7134,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>342</v>
@@ -7159,7 +7153,7 @@
         <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
@@ -7261,7 +7255,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>353</v>
@@ -7378,7 +7372,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>359</v>
@@ -7493,13 +7487,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>316</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>79</v>
@@ -7524,7 +7518,7 @@
         <v>317</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>319</v>
@@ -7610,7 +7604,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>322</v>
@@ -7725,7 +7719,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>323</v>
@@ -7840,9 +7834,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>324</v>
@@ -7859,7 +7853,7 @@
         <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>79</v>
@@ -7883,7 +7877,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>79</v>
@@ -7955,9 +7949,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>334</v>
@@ -7974,7 +7968,7 @@
         <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>79</v>
@@ -8074,9 +8068,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>342</v>
@@ -8093,7 +8087,7 @@
         <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>92</v>
@@ -8195,7 +8189,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>353</v>
@@ -8312,7 +8306,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>359</v>
@@ -8427,10 +8421,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8438,7 +8432,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
@@ -8453,16 +8447,16 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8512,7 +8506,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8544,10 +8538,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8573,14 +8567,14 @@
         <v>224</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8629,7 +8623,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8661,10 +8655,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8690,13 +8684,13 @@
         <v>216</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8746,7 +8740,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8778,10 +8772,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8804,17 +8798,17 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -8863,7 +8857,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8884,7 +8878,7 @@
         <v>240</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8895,10 +8889,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8921,17 +8915,17 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -8980,7 +8974,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9012,10 +9006,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9038,13 +9032,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9095,7 +9089,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9113,7 +9107,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>166</v>
@@ -9127,10 +9121,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9242,10 +9236,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9359,14 +9353,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9388,10 +9382,10 @@
         <v>139</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>142</v>
@@ -9446,7 +9440,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9478,10 +9472,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9507,14 +9501,14 @@
         <v>151</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -9563,7 +9557,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9595,10 +9589,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9624,10 +9618,10 @@
         <v>183</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9657,7 +9651,7 @@
         <v>249</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9678,7 +9672,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>91</v>
@@ -9710,10 +9704,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9739,14 +9733,14 @@
         <v>216</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -9795,7 +9789,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9827,10 +9821,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9856,10 +9850,10 @@
         <v>224</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9910,7 +9904,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
